--- a/data/mixture/8 solutions/PCA_with_112_121.xlsx
+++ b/data/mixture/8 solutions/PCA_with_112_121.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-187.8907282953191</v>
+        <v>-187.8907282953189</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.93196996780285</v>
+        <v>-7.931969967802727</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         <v>-202.0439661239924</v>
       </c>
       <c r="B3" t="n">
-        <v>-42.65756631306645</v>
+        <v>-42.65756631306633</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-185.6214124850554</v>
+        <v>-185.6214124850553</v>
       </c>
       <c r="B4" t="n">
-        <v>-92.832078179931</v>
+        <v>-92.83207817993092</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>-189.6464978355295</v>
       </c>
       <c r="B5" t="n">
-        <v>-106.3434816787824</v>
+        <v>-106.3434816787823</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-195.729241738156</v>
+        <v>-195.7292417381559</v>
       </c>
       <c r="B8" t="n">
         <v>-117.0997183793347</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-205.5920338225731</v>
+        <v>-205.592033822573</v>
       </c>
       <c r="B9" t="n">
-        <v>-134.7059661542243</v>
+        <v>-134.7059661542241</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-215.2369503438656</v>
+        <v>-215.2369503438655</v>
       </c>
       <c r="B10" t="n">
-        <v>-160.6993825335331</v>
+        <v>-160.699382533533</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-230.8318837966612</v>
+        <v>-230.8318837966611</v>
       </c>
       <c r="B11" t="n">
-        <v>-193.8894912614351</v>
+        <v>-193.889491261435</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         <v>-213.7200546932451</v>
       </c>
       <c r="B12" t="n">
-        <v>4.25361126919627</v>
+        <v>4.253611269196295</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-321.7554761320195</v>
+        <v>-321.7554761320194</v>
       </c>
       <c r="B13" t="n">
-        <v>-122.0063059733935</v>
+        <v>-122.0063059733934</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-351.5151695745171</v>
+        <v>-351.515169574517</v>
       </c>
       <c r="B14" t="n">
-        <v>-160.1401903181493</v>
+        <v>-160.1401903181492</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-319.0413901849606</v>
+        <v>-319.0413901849605</v>
       </c>
       <c r="B15" t="n">
-        <v>-189.7610986242697</v>
+        <v>-189.7610986242696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-311.0384421833992</v>
+        <v>-311.0384421833991</v>
       </c>
       <c r="B16" t="n">
         <v>-184.3299373368047</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-302.4587403854274</v>
+        <v>-302.4587403854272</v>
       </c>
       <c r="B17" t="n">
-        <v>-182.603339031867</v>
+        <v>-182.6033390318669</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-307.3043992723367</v>
+        <v>-307.3043992723366</v>
       </c>
       <c r="B18" t="n">
-        <v>-183.2511052518341</v>
+        <v>-183.2511052518339</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-243.6641121267333</v>
+        <v>-243.6641121267332</v>
       </c>
       <c r="B19" t="n">
-        <v>-122.1919835605291</v>
+        <v>-122.191983560529</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>-247.7733628367971</v>
       </c>
       <c r="B20" t="n">
-        <v>-85.26395016829392</v>
+        <v>-85.26395016829385</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>-262.5756513272309</v>
       </c>
       <c r="B21" t="n">
-        <v>-75.52511457486168</v>
+        <v>-75.52511457486159</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.2955917151432317</v>
+        <v>-0.2955917151432251</v>
       </c>
       <c r="B22" t="n">
-        <v>8.326720527784701</v>
+        <v>8.326720527784687</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19.25075908218332</v>
+        <v>19.25075908218333</v>
       </c>
       <c r="B23" t="n">
-        <v>12.57605182977094</v>
+        <v>12.57605182977093</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.1774966024243</v>
+        <v>26.17749660242428</v>
       </c>
       <c r="B24" t="n">
         <v>23.43409190481254</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>42.26887505680131</v>
+        <v>42.26887505680128</v>
       </c>
       <c r="B25" t="n">
-        <v>35.56267598805319</v>
+        <v>35.56267598805318</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21.91619160296369</v>
+        <v>21.91619160296365</v>
       </c>
       <c r="B26" t="n">
-        <v>32.17881016647063</v>
+        <v>32.17881016647064</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15.4595366878888</v>
+        <v>15.45953668788876</v>
       </c>
       <c r="B27" t="n">
-        <v>29.36480603231833</v>
+        <v>29.36480603231834</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17.14712383933232</v>
+        <v>17.14712383933228</v>
       </c>
       <c r="B28" t="n">
-        <v>28.7403810674158</v>
+        <v>28.74038106741582</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17.48299806539634</v>
+        <v>17.48299806539629</v>
       </c>
       <c r="B29" t="n">
         <v>28.65224705646318</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18.2582161700096</v>
+        <v>18.25821617000958</v>
       </c>
       <c r="B30" t="n">
-        <v>29.22301496062083</v>
+        <v>29.22301496062084</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.58244421859339</v>
+        <v>14.58244421859335</v>
       </c>
       <c r="B31" t="n">
-        <v>28.14868656888698</v>
+        <v>28.148686568887</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25.34571115997031</v>
+        <v>25.3457111599703</v>
       </c>
       <c r="B32" t="n">
-        <v>69.5190425281027</v>
+        <v>69.51904252810267</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>14.50330698459004</v>
       </c>
       <c r="B33" t="n">
-        <v>50.24685930561445</v>
+        <v>50.24685930561444</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>-104.630252170374</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.30461596018859</v>
+        <v>-39.30461596018855</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>-106.4162574932986</v>
       </c>
       <c r="B36" t="n">
-        <v>-40.86300385984745</v>
+        <v>-40.86300385984741</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>-106.4505243335053</v>
       </c>
       <c r="B37" t="n">
-        <v>-40.83567876654929</v>
+        <v>-40.83567876654926</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>-104.5717032634837</v>
       </c>
       <c r="B38" t="n">
-        <v>-39.55373727514387</v>
+        <v>-39.55373727514382</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>-111.6141115687602</v>
       </c>
       <c r="B39" t="n">
-        <v>-42.87912098183236</v>
+        <v>-42.8791209818323</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>-113.1804784959497</v>
       </c>
       <c r="B40" t="n">
-        <v>-43.8943234267322</v>
+        <v>-43.89432342673216</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>-116.4270694222676</v>
       </c>
       <c r="B41" t="n">
-        <v>-44.35279943490617</v>
+        <v>-44.35279943490614</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-21.00378348499116</v>
+        <v>-21.00378348499124</v>
       </c>
       <c r="B42" t="n">
-        <v>234.6935181545574</v>
+        <v>234.6935181545573</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-21.94833711687852</v>
+        <v>-21.94833711687858</v>
       </c>
       <c r="B43" t="n">
         <v>186.1477164138034</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-31.11428813985131</v>
+        <v>-31.11428813985139</v>
       </c>
       <c r="B44" t="n">
-        <v>173.7411238434541</v>
+        <v>173.7411238434542</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-26.46389781311017</v>
+        <v>-26.46389781311021</v>
       </c>
       <c r="B45" t="n">
-        <v>167.5700272817003</v>
+        <v>167.5700272817002</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-15.98385942349492</v>
+        <v>-15.98385942349499</v>
       </c>
       <c r="B46" t="n">
         <v>168.1595716571111</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-14.7024566074398</v>
+        <v>-14.70245660743982</v>
       </c>
       <c r="B47" t="n">
-        <v>163.5479648004239</v>
+        <v>163.5479648004238</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-11.4242625823571</v>
+        <v>-11.42426258235713</v>
       </c>
       <c r="B48" t="n">
-        <v>155.9376813241585</v>
+        <v>155.9376813241584</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-12.78184581813272</v>
+        <v>-12.78184581813276</v>
       </c>
       <c r="B49" t="n">
         <v>146.5522455265427</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-8.928156568590452</v>
+        <v>-8.928156568590483</v>
       </c>
       <c r="B50" t="n">
         <v>141.4300083319748</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27.0810075226384</v>
+        <v>27.08100752263837</v>
       </c>
       <c r="B51" t="n">
         <v>174.4554181817301</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>195.2004737797795</v>
+        <v>195.2004737797793</v>
       </c>
       <c r="B52" t="n">
-        <v>241.0900129408566</v>
+        <v>241.0900129408565</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>219.449482895488</v>
+        <v>219.4494828954879</v>
       </c>
       <c r="B53" t="n">
-        <v>167.9931924139751</v>
+        <v>167.993192413975</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>248.7128289223529</v>
+        <v>248.7128289223528</v>
       </c>
       <c r="B54" t="n">
-        <v>105.7822603502123</v>
+        <v>105.7822603502122</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>215.4473012061389</v>
       </c>
       <c r="B55" t="n">
-        <v>53.34399962894834</v>
+        <v>53.34399962894827</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>212.5137427115133</v>
       </c>
       <c r="B56" t="n">
-        <v>9.982096422508601</v>
+        <v>9.98209642250854</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>243.522869278898</v>
       </c>
       <c r="B57" t="n">
-        <v>-63.54260890810973</v>
+        <v>-63.54260890810978</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>284.2052172981465</v>
+        <v>284.2052172981467</v>
       </c>
       <c r="B58" t="n">
         <v>-160.0245102301676</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>302.8155205538085</v>
+        <v>302.8155205538086</v>
       </c>
       <c r="B59" t="n">
-        <v>-208.4045109076009</v>
+        <v>-208.404510907601</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>330.4983036806792</v>
+        <v>330.4983036806793</v>
       </c>
       <c r="B60" t="n">
-        <v>-227.2518203759056</v>
+        <v>-227.2518203759057</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>505.6275693284639</v>
       </c>
       <c r="B62" t="n">
-        <v>-172.9336152515918</v>
+        <v>-172.9336152515919</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>459.1502348137366</v>
+        <v>459.1502348137367</v>
       </c>
       <c r="B63" t="n">
-        <v>-153.7376063441383</v>
+        <v>-153.7376063441384</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>402.2301152977445</v>
+        <v>402.2301152977446</v>
       </c>
       <c r="B64" t="n">
-        <v>-168.000102440822</v>
+        <v>-168.0001024408221</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>188.2331899979205</v>
       </c>
       <c r="B65" t="n">
-        <v>32.91733132073095</v>
+        <v>32.9173313207309</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>169.0662076252206</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.230722851889727</v>
+        <v>-4.230722851889796</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>179.2500430436623</v>
       </c>
       <c r="B67" t="n">
-        <v>-38.41815632023899</v>
+        <v>-38.41815632023904</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>291.6603780071397</v>
       </c>
       <c r="B69" t="n">
-        <v>-203.1162601406258</v>
+        <v>-203.1162601406259</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>344.368636431857</v>
+        <v>344.3686364318572</v>
       </c>
       <c r="B70" t="n">
-        <v>-217.1059520372777</v>
+        <v>-217.1059520372778</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>454.9907894021212</v>
+        <v>454.9907894021214</v>
       </c>
       <c r="B71" t="n">
-        <v>-209.854946776735</v>
+        <v>-209.8549467767351</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>103.2873129760589</v>
       </c>
       <c r="B72" t="n">
-        <v>368.4643309889093</v>
+        <v>368.4643309889092</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>117.9499099249649</v>
+        <v>117.9499099249648</v>
       </c>
       <c r="B73" t="n">
-        <v>316.4182364100753</v>
+        <v>316.4182364100752</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>95.59879218366976</v>
+        <v>95.59879218366966</v>
       </c>
       <c r="B74" t="n">
-        <v>269.3147339276474</v>
+        <v>269.3147339276472</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-59.93174129429064</v>
+        <v>-59.93174129429081</v>
       </c>
       <c r="B75" t="n">
-        <v>213.0829456044295</v>
+        <v>213.0829456044296</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-92.79191846497642</v>
+        <v>-92.79191846497656</v>
       </c>
       <c r="B76" t="n">
-        <v>176.1603958205264</v>
+        <v>176.1603958205265</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-81.55122005245619</v>
+        <v>-81.55122005245632</v>
       </c>
       <c r="B77" t="n">
-        <v>171.8141711961487</v>
+        <v>171.8141711961488</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-89.31820643344867</v>
+        <v>-89.31820643344881</v>
       </c>
       <c r="B78" t="n">
-        <v>149.2363132004302</v>
+        <v>149.2363132004303</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-96.42202984886192</v>
+        <v>-96.42202984886204</v>
       </c>
       <c r="B79" t="n">
         <v>123.9232403720256</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-79.2556013511973</v>
+        <v>-79.2556013511974</v>
       </c>
       <c r="B80" t="n">
         <v>138.5535140785425</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-56.86230504327868</v>
+        <v>-56.86230504327882</v>
       </c>
       <c r="B81" t="n">
-        <v>218.5100259130615</v>
+        <v>218.5100259130614</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
